--- a/StructureDefinition-profile-Parameters.xlsx
+++ b/StructureDefinition-profile-Parameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7609731-06:00</t>
+    <t>2026-02-09T22:05:43.257953-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,6 +417,12 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Parameters.parameter.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -425,6 +431,12 @@
   </si>
   <si>
     <t>Conveys the content if the parameter is a data type.</t>
+  </si>
+  <si>
+    <t>Element `Parameters.parameter.value[x]` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
+Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.
+Element `Parameters.parameter.value[x]` is mapped to FHIR R4 element `Parameters.parameter.value[x]`.
+Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1742,7 +1754,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -1835,12 +1847,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
@@ -1861,15 +1875,17 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -1927,7 +1943,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>129</v>
@@ -1941,14 +1957,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1970,16 +1986,16 @@
         <v>123</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2028,7 +2044,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2046,15 +2062,15 @@
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2080,10 +2096,10 @@
         <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2134,7 +2150,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -2157,10 +2173,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2183,13 +2199,13 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2240,7 +2256,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2249,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>96</v>
@@ -2263,10 +2279,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2289,16 +2305,16 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2348,7 +2364,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2357,7 +2373,7 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2371,10 +2387,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2400,13 +2416,13 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2456,7 +2472,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-Parameters.xlsx
+++ b/StructureDefinition-profile-Parameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.257953-06:00</t>
+    <t>2026-02-17T14:42:26.8725237-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,26 +417,21 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Parameters.parameter.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter.value|0.0.1-snapshot-3}
+    <t>Parameters.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Parameters.parameter.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Conveys the content if the parameter is a data type.</t>
-  </si>
-  <si>
-    <t>Element `Parameters.parameter.value[x]` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.
-Element `Parameters.parameter.value[x]` is mapped to FHIR R4 element `Parameters.parameter.value[x]`.
-Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.</t>
+    <t>Cross-version extension for Parameters.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Parameters.parameter` has is mapped to FHIR R4 element `Parameters.parameter`, but has no comparisons.
+Note available implied context: `Parameters.parameter.part` because `Parameters.parameter.part` is defined as a content reference to `Parameters.parameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -836,7 +831,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.31640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.31640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1863,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1881,10 +1876,10 @@
         <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1943,7 +1938,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>129</v>
@@ -1957,14 +1952,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1986,16 +1981,16 @@
         <v>123</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2044,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2062,15 +2057,15 @@
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2096,10 +2091,10 @@
         <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2150,7 +2145,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -2173,10 +2168,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2199,13 +2194,13 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2256,7 +2251,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2265,7 +2260,7 @@
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>96</v>
@@ -2279,10 +2274,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2305,16 +2300,16 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2364,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2373,7 +2368,7 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2387,10 +2382,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2416,13 +2411,13 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2472,7 +2467,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-Parameters.xlsx
+++ b/StructureDefinition-profile-Parameters.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8725237-06:00</t>
+    <t>2026-02-20T11:59:20.9100223-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Parameters</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -423,7 +423,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Parameters.xlsx
+++ b/StructureDefinition-profile-Parameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9100223-06:00</t>
+    <t>2026-02-21T13:36:54.3138669-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Parameters|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -417,21 +417,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Parameters.parameter.extension:parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter}
+    <t>Parameters.parameter.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Parameters.parameter.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Parameters.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Parameters.parameter` has is mapped to FHIR R4 element `Parameters.parameter`, but has no comparisons.
-Note available implied context: `Parameters.parameter.part` because `Parameters.parameter.part` is defined as a content reference to `Parameters.parameter`.</t>
+    <t>Cross-version extension for Parameters.parameter.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Conveys the content if the parameter is a data type.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.
+Element `Parameters.parameter.value[x]` is mapped to FHIR R4 element `Parameters.parameter.value[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.
+Note available implied context: `Parameters.parameter.part` because `Parameters.parameter.part` is defined via a content reference to `Parameters.parameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -831,7 +836,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.31640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.31640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1858,7 +1863,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1876,10 +1881,10 @@
         <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1938,7 +1943,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>129</v>
@@ -1952,14 +1957,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1981,16 +1986,16 @@
         <v>123</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2039,7 +2044,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2057,15 +2062,15 @@
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2091,10 +2096,10 @@
         <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2145,7 +2150,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -2168,10 +2173,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2194,13 +2199,13 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2251,7 +2256,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2260,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>96</v>
@@ -2274,10 +2279,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2300,16 +2305,16 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2359,7 +2364,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2368,7 +2373,7 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2382,10 +2387,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2411,13 +2416,13 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2467,7 +2472,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
